--- a/data/raw/election/voters-age-sex-education/2023/Giresun.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Giresun.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:40:28-17809671101" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="45">
   <si>
     <t>Giresun</t>
   </si>
@@ -149,6 +148,12 @@
   </si>
   <si>
     <t>Yağlıdere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -702,10 +707,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,10 +1044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421:A422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,20 +1067,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2100,8 +2114,8 @@
       <c r="D30" s="5">
         <v>753</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.0630000000000002</v>
+      <c r="E30" s="7">
+        <v>2063</v>
       </c>
       <c r="F30" s="5">
         <v>416</v>
@@ -2109,8 +2123,8 @@
       <c r="G30" s="5">
         <v>764</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.357</v>
+      <c r="H30" s="7">
+        <v>1357</v>
       </c>
       <c r="I30" s="5">
         <v>732</v>
@@ -2124,8 +2138,8 @@
       <c r="L30" s="5">
         <v>41</v>
       </c>
-      <c r="M30" s="5">
-        <v>6.766</v>
+      <c r="M30" s="7">
+        <v>6766</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2189,8 +2203,8 @@
       <c r="G32" s="4">
         <v>595</v>
       </c>
-      <c r="H32" s="4">
-        <v>2.1669999999999998</v>
+      <c r="H32" s="9">
+        <v>2167</v>
       </c>
       <c r="I32" s="4">
         <v>492</v>
@@ -2204,8 +2218,8 @@
       <c r="L32" s="4">
         <v>33</v>
       </c>
-      <c r="M32" s="5">
-        <v>3.298</v>
+      <c r="M32" s="7">
+        <v>3298</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2228,8 +2242,8 @@
       <c r="G33" s="4">
         <v>365</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.069</v>
+      <c r="H33" s="9">
+        <v>2069</v>
       </c>
       <c r="I33" s="4">
         <v>744</v>
@@ -2243,8 +2257,8 @@
       <c r="L33" s="4">
         <v>11</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.2029999999999998</v>
+      <c r="M33" s="7">
+        <v>3203</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2284,8 +2298,8 @@
       <c r="L34" s="4">
         <v>10</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.2789999999999999</v>
+      <c r="M34" s="7">
+        <v>2279</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2311,8 +2325,8 @@
       <c r="H35" s="4">
         <v>622</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.248</v>
+      <c r="I35" s="9">
+        <v>1248</v>
       </c>
       <c r="J35" s="4">
         <v>85</v>
@@ -2323,8 +2337,8 @@
       <c r="L35" s="4">
         <v>5</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.4009999999999998</v>
+      <c r="M35" s="7">
+        <v>2401</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2364,8 +2378,8 @@
       <c r="L36" s="4">
         <v>9</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.3210000000000002</v>
+      <c r="M36" s="7">
+        <v>2321</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2403,8 +2417,8 @@
       <c r="L37" s="4">
         <v>16</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.3069999999999999</v>
+      <c r="M37" s="7">
+        <v>2307</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2444,8 +2458,8 @@
       <c r="L38" s="4">
         <v>13</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.4620000000000002</v>
+      <c r="M38" s="7">
+        <v>2462</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2483,8 +2497,8 @@
       <c r="L39" s="4">
         <v>12</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.274</v>
+      <c r="M39" s="7">
+        <v>2274</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2524,8 +2538,8 @@
       <c r="L40" s="4">
         <v>7</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.3820000000000001</v>
+      <c r="M40" s="7">
+        <v>2382</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2563,8 +2577,8 @@
       <c r="L41" s="4">
         <v>14</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.5110000000000001</v>
+      <c r="M41" s="7">
+        <v>2511</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2604,8 +2618,8 @@
       <c r="L42" s="4">
         <v>25</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.2999999999999998</v>
+      <c r="M42" s="7">
+        <v>2300</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2643,8 +2657,8 @@
       <c r="L43" s="4">
         <v>16</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.3370000000000002</v>
+      <c r="M43" s="7">
+        <v>2337</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2684,8 +2698,8 @@
       <c r="L44" s="4">
         <v>15</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.2519999999999998</v>
+      <c r="M44" s="7">
+        <v>2252</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2723,8 +2737,8 @@
       <c r="L45" s="4">
         <v>28</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.1989999999999998</v>
+      <c r="M45" s="7">
+        <v>2199</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2764,8 +2778,8 @@
       <c r="L46" s="4">
         <v>29</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.4929999999999999</v>
+      <c r="M46" s="7">
+        <v>2493</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,8 +2793,8 @@
       <c r="D47" s="4">
         <v>157</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.222</v>
+      <c r="E47" s="9">
+        <v>1222</v>
       </c>
       <c r="F47" s="4">
         <v>291</v>
@@ -2803,8 +2817,8 @@
       <c r="L47" s="4">
         <v>24</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.4470000000000001</v>
+      <c r="M47" s="7">
+        <v>2447</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2844,8 +2858,8 @@
       <c r="L48" s="4">
         <v>36</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.2989999999999999</v>
+      <c r="M48" s="7">
+        <v>2299</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2859,8 +2873,8 @@
       <c r="D49" s="4">
         <v>255</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.099</v>
+      <c r="E49" s="9">
+        <v>1099</v>
       </c>
       <c r="F49" s="4">
         <v>160</v>
@@ -2883,8 +2897,8 @@
       <c r="L49" s="4">
         <v>31</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.1240000000000001</v>
+      <c r="M49" s="7">
+        <v>2124</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,8 +2914,8 @@
       <c r="D50" s="4">
         <v>32</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E50" s="9">
+        <v>1059</v>
       </c>
       <c r="F50" s="4">
         <v>115</v>
@@ -2924,8 +2938,8 @@
       <c r="L50" s="4">
         <v>29</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.909</v>
+      <c r="M50" s="7">
+        <v>1909</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2963,8 +2977,8 @@
       <c r="L51" s="4">
         <v>20</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.968</v>
+      <c r="M51" s="7">
+        <v>1968</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3004,8 +3018,8 @@
       <c r="L52" s="4">
         <v>9</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.0509999999999999</v>
+      <c r="M52" s="7">
+        <v>1051</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3043,8 +3057,8 @@
       <c r="L53" s="4">
         <v>30</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.302</v>
+      <c r="M53" s="7">
+        <v>1302</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3084,8 +3098,8 @@
       <c r="L54" s="4">
         <v>18</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.5620000000000001</v>
+      <c r="M54" s="7">
+        <v>1562</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3096,8 +3110,8 @@
       <c r="C55" s="4">
         <v>486</v>
       </c>
-      <c r="D55" s="4">
-        <v>1.2949999999999999</v>
+      <c r="D55" s="9">
+        <v>1295</v>
       </c>
       <c r="E55" s="4">
         <v>549</v>
@@ -3123,8 +3137,8 @@
       <c r="L55" s="4">
         <v>36</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.431</v>
+      <c r="M55" s="7">
+        <v>2431</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,26 +3146,26 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.627</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.2690000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>12.423</v>
-      </c>
-      <c r="F56" s="5">
-        <v>4.9429999999999996</v>
-      </c>
-      <c r="G56" s="5">
-        <v>7.1989999999999998</v>
-      </c>
-      <c r="H56" s="5">
-        <v>14</v>
-      </c>
-      <c r="I56" s="5">
-        <v>9.2829999999999995</v>
+      <c r="C56" s="7">
+        <v>1627</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3269</v>
+      </c>
+      <c r="E56" s="7">
+        <v>12423</v>
+      </c>
+      <c r="F56" s="7">
+        <v>4943</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7199</v>
+      </c>
+      <c r="H56" s="7">
+        <v>14000</v>
+      </c>
+      <c r="I56" s="7">
+        <v>9283</v>
       </c>
       <c r="J56" s="5">
         <v>785</v>
@@ -3162,8 +3176,8 @@
       <c r="L56" s="5">
         <v>476</v>
       </c>
-      <c r="M56" s="5">
-        <v>54.112000000000002</v>
+      <c r="M56" s="7">
+        <v>54112</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4176,8 +4190,8 @@
       <c r="D82" s="5">
         <v>622</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.8169999999999999</v>
+      <c r="E82" s="7">
+        <v>1817</v>
       </c>
       <c r="F82" s="5">
         <v>382</v>
@@ -4200,8 +4214,8 @@
       <c r="L82" s="5">
         <v>20</v>
       </c>
-      <c r="M82" s="5">
-        <v>5.0460000000000003</v>
+      <c r="M82" s="7">
+        <v>5046</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5214,8 +5228,8 @@
       <c r="D108" s="5">
         <v>532</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.236</v>
+      <c r="E108" s="7">
+        <v>1236</v>
       </c>
       <c r="F108" s="5">
         <v>437</v>
@@ -5223,8 +5237,8 @@
       <c r="G108" s="5">
         <v>828</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.0569999999999999</v>
+      <c r="H108" s="7">
+        <v>1057</v>
       </c>
       <c r="I108" s="5">
         <v>428</v>
@@ -5238,8 +5252,8 @@
       <c r="L108" s="5">
         <v>78</v>
       </c>
-      <c r="M108" s="5">
-        <v>4.9450000000000003</v>
+      <c r="M108" s="7">
+        <v>4945</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6237,8 +6251,8 @@
       <c r="L133" s="4">
         <v>10</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.131</v>
+      <c r="M133" s="7">
+        <v>1131</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6246,26 +6260,26 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.579</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.746</v>
-      </c>
-      <c r="E134" s="5">
-        <v>4.5250000000000004</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.762</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2.645</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.218</v>
+      <c r="C134" s="7">
+        <v>1579</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1746</v>
+      </c>
+      <c r="E134" s="7">
+        <v>4525</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1762</v>
+      </c>
+      <c r="G134" s="7">
+        <v>1814</v>
+      </c>
+      <c r="H134" s="7">
+        <v>2645</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1218</v>
       </c>
       <c r="J134" s="5">
         <v>63</v>
@@ -6276,8 +6290,8 @@
       <c r="L134" s="5">
         <v>137</v>
       </c>
-      <c r="M134" s="5">
-        <v>15.499000000000001</v>
+      <c r="M134" s="7">
+        <v>15499</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7299,8 +7313,8 @@
       <c r="G160" s="5">
         <v>682</v>
       </c>
-      <c r="H160" s="5">
-        <v>1.4390000000000001</v>
+      <c r="H160" s="7">
+        <v>1439</v>
       </c>
       <c r="I160" s="5">
         <v>668</v>
@@ -7314,8 +7328,8 @@
       <c r="L160" s="5">
         <v>24</v>
       </c>
-      <c r="M160" s="5">
-        <v>5.0359999999999996</v>
+      <c r="M160" s="7">
+        <v>5036</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7379,8 +7393,8 @@
       <c r="G162" s="4">
         <v>430</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.0880000000000001</v>
+      <c r="H162" s="9">
+        <v>1088</v>
       </c>
       <c r="I162" s="4">
         <v>229</v>
@@ -7394,8 +7408,8 @@
       <c r="L162" s="4">
         <v>16</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.7789999999999999</v>
+      <c r="M162" s="7">
+        <v>1779</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7418,8 +7432,8 @@
       <c r="G163" s="4">
         <v>303</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.071</v>
+      <c r="H163" s="9">
+        <v>1071</v>
       </c>
       <c r="I163" s="4">
         <v>372</v>
@@ -7433,8 +7447,8 @@
       <c r="L163" s="4">
         <v>5</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.7609999999999999</v>
+      <c r="M163" s="7">
+        <v>1761</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7474,8 +7488,8 @@
       <c r="L164" s="4">
         <v>6</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.2450000000000001</v>
+      <c r="M164" s="7">
+        <v>1245</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7513,8 +7527,8 @@
       <c r="L165" s="4">
         <v>6</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.159</v>
+      <c r="M165" s="7">
+        <v>1159</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7554,8 +7568,8 @@
       <c r="L166" s="4">
         <v>2</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.0880000000000001</v>
+      <c r="M166" s="7">
+        <v>1088</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7593,8 +7607,8 @@
       <c r="L167" s="4">
         <v>2</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.107</v>
+      <c r="M167" s="7">
+        <v>1107</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7634,8 +7648,8 @@
       <c r="L168" s="4">
         <v>6</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.1559999999999999</v>
+      <c r="M168" s="7">
+        <v>1156</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7673,8 +7687,8 @@
       <c r="L169" s="4">
         <v>4</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.091</v>
+      <c r="M169" s="7">
+        <v>1091</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7714,8 +7728,8 @@
       <c r="L170" s="4">
         <v>9</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.218</v>
+      <c r="M170" s="7">
+        <v>1218</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7753,8 +7767,8 @@
       <c r="L171" s="4">
         <v>9</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.1180000000000001</v>
+      <c r="M171" s="7">
+        <v>1118</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7794,8 +7808,8 @@
       <c r="L172" s="4">
         <v>5</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.121</v>
+      <c r="M172" s="7">
+        <v>1121</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7833,8 +7847,8 @@
       <c r="L173" s="4">
         <v>10</v>
       </c>
-      <c r="M173" s="5">
-        <v>1</v>
+      <c r="M173" s="7">
+        <v>1000</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7874,8 +7888,8 @@
       <c r="L174" s="4">
         <v>5</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.127</v>
+      <c r="M174" s="7">
+        <v>1127</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7913,8 +7927,8 @@
       <c r="L175" s="4">
         <v>12</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.0589999999999999</v>
+      <c r="M175" s="7">
+        <v>1059</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7954,8 +7968,8 @@
       <c r="L176" s="4">
         <v>31</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.25</v>
+      <c r="M176" s="7">
+        <v>1250</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7993,8 +8007,8 @@
       <c r="L177" s="4">
         <v>18</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.1439999999999999</v>
+      <c r="M177" s="7">
+        <v>1144</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8034,8 +8048,8 @@
       <c r="L178" s="4">
         <v>19</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.157</v>
+      <c r="M178" s="7">
+        <v>1157</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8073,8 +8087,8 @@
       <c r="L179" s="4">
         <v>15</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.0329999999999999</v>
+      <c r="M179" s="7">
+        <v>1033</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8114,8 +8128,8 @@
       <c r="L180" s="4">
         <v>16</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.018</v>
+      <c r="M180" s="7">
+        <v>1018</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8153,8 +8167,8 @@
       <c r="L181" s="4">
         <v>13</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.0629999999999999</v>
+      <c r="M181" s="7">
+        <v>1063</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8313,8 +8327,8 @@
       <c r="L185" s="4">
         <v>17</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.421</v>
+      <c r="M185" s="7">
+        <v>1421</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8325,23 +8339,23 @@
       <c r="C186" s="5">
         <v>919</v>
       </c>
-      <c r="D186" s="5">
-        <v>2.4009999999999998</v>
-      </c>
-      <c r="E186" s="5">
-        <v>6.4390000000000001</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2.2519999999999998</v>
-      </c>
-      <c r="G186" s="5">
-        <v>4.0960000000000001</v>
-      </c>
-      <c r="H186" s="5">
-        <v>6.71</v>
-      </c>
-      <c r="I186" s="5">
-        <v>3.9420000000000002</v>
+      <c r="D186" s="7">
+        <v>2401</v>
+      </c>
+      <c r="E186" s="7">
+        <v>6439</v>
+      </c>
+      <c r="F186" s="7">
+        <v>2252</v>
+      </c>
+      <c r="G186" s="7">
+        <v>4096</v>
+      </c>
+      <c r="H186" s="7">
+        <v>6710</v>
+      </c>
+      <c r="I186" s="7">
+        <v>3942</v>
       </c>
       <c r="J186" s="5">
         <v>339</v>
@@ -8352,8 +8366,8 @@
       <c r="L186" s="5">
         <v>260</v>
       </c>
-      <c r="M186" s="5">
-        <v>27.388999999999999</v>
+      <c r="M186" s="7">
+        <v>27389</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9366,20 +9380,20 @@
       <c r="D212" s="5">
         <v>967</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.383</v>
+      <c r="E212" s="7">
+        <v>2383</v>
       </c>
       <c r="F212" s="5">
         <v>597</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.375</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.9870000000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>1.413</v>
+      <c r="G212" s="7">
+        <v>1375</v>
+      </c>
+      <c r="H212" s="7">
+        <v>2987</v>
+      </c>
+      <c r="I212" s="7">
+        <v>1413</v>
       </c>
       <c r="J212" s="5">
         <v>77</v>
@@ -9390,8 +9404,8 @@
       <c r="L212" s="5">
         <v>122</v>
       </c>
-      <c r="M212" s="5">
-        <v>10.471</v>
+      <c r="M212" s="7">
+        <v>10471</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9455,8 +9469,8 @@
       <c r="G214" s="4">
         <v>769</v>
       </c>
-      <c r="H214" s="4">
-        <v>4.3129999999999997</v>
+      <c r="H214" s="9">
+        <v>4313</v>
       </c>
       <c r="I214" s="4">
         <v>977</v>
@@ -9470,8 +9484,8 @@
       <c r="L214" s="4">
         <v>40</v>
       </c>
-      <c r="M214" s="5">
-        <v>6.1289999999999996</v>
+      <c r="M214" s="7">
+        <v>6129</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9494,11 +9508,11 @@
       <c r="G215" s="4">
         <v>599</v>
       </c>
-      <c r="H215" s="4">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="I215" s="4">
-        <v>1.43</v>
+      <c r="H215" s="9">
+        <v>3947</v>
+      </c>
+      <c r="I215" s="9">
+        <v>1430</v>
       </c>
       <c r="J215" s="4">
         <v>17</v>
@@ -9509,8 +9523,8 @@
       <c r="L215" s="4">
         <v>24</v>
       </c>
-      <c r="M215" s="5">
-        <v>6.0369999999999999</v>
+      <c r="M215" s="7">
+        <v>6037</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9535,11 +9549,11 @@
       <c r="G216" s="4">
         <v>748</v>
       </c>
-      <c r="H216" s="4">
-        <v>1.429</v>
-      </c>
-      <c r="I216" s="4">
-        <v>2.3290000000000002</v>
+      <c r="H216" s="9">
+        <v>1429</v>
+      </c>
+      <c r="I216" s="9">
+        <v>2329</v>
       </c>
       <c r="J216" s="4">
         <v>170</v>
@@ -9550,8 +9564,8 @@
       <c r="L216" s="4">
         <v>38</v>
       </c>
-      <c r="M216" s="5">
-        <v>4.7359999999999998</v>
+      <c r="M216" s="7">
+        <v>4736</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9574,11 +9588,11 @@
       <c r="G217" s="4">
         <v>546</v>
       </c>
-      <c r="H217" s="4">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="I217" s="4">
-        <v>2.9169999999999998</v>
+      <c r="H217" s="9">
+        <v>1144</v>
+      </c>
+      <c r="I217" s="9">
+        <v>2917</v>
       </c>
       <c r="J217" s="4">
         <v>254</v>
@@ -9589,8 +9603,8 @@
       <c r="L217" s="4">
         <v>18</v>
       </c>
-      <c r="M217" s="5">
-        <v>4.92</v>
+      <c r="M217" s="7">
+        <v>4920</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9615,11 +9629,11 @@
       <c r="G218" s="4">
         <v>354</v>
       </c>
-      <c r="H218" s="4">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="I218" s="4">
-        <v>2.0819999999999999</v>
+      <c r="H218" s="9">
+        <v>1469</v>
+      </c>
+      <c r="I218" s="9">
+        <v>2082</v>
       </c>
       <c r="J218" s="4">
         <v>295</v>
@@ -9630,8 +9644,8 @@
       <c r="L218" s="4">
         <v>33</v>
       </c>
-      <c r="M218" s="5">
-        <v>4.6539999999999999</v>
+      <c r="M218" s="7">
+        <v>4654</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9654,11 +9668,11 @@
       <c r="G219" s="4">
         <v>304</v>
       </c>
-      <c r="H219" s="4">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="I219" s="4">
-        <v>2.4729999999999999</v>
+      <c r="H219" s="9">
+        <v>1334</v>
+      </c>
+      <c r="I219" s="9">
+        <v>2473</v>
       </c>
       <c r="J219" s="4">
         <v>361</v>
@@ -9669,8 +9683,8 @@
       <c r="L219" s="4">
         <v>38</v>
       </c>
-      <c r="M219" s="5">
-        <v>4.97</v>
+      <c r="M219" s="7">
+        <v>4970</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9695,11 +9709,11 @@
       <c r="G220" s="4">
         <v>366</v>
       </c>
-      <c r="H220" s="4">
-        <v>1.823</v>
-      </c>
-      <c r="I220" s="4">
-        <v>1.851</v>
+      <c r="H220" s="9">
+        <v>1823</v>
+      </c>
+      <c r="I220" s="9">
+        <v>1851</v>
       </c>
       <c r="J220" s="4">
         <v>291</v>
@@ -9710,8 +9724,8 @@
       <c r="L220" s="4">
         <v>44</v>
       </c>
-      <c r="M220" s="5">
-        <v>5.1470000000000002</v>
+      <c r="M220" s="7">
+        <v>5147</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9734,11 +9748,11 @@
       <c r="G221" s="4">
         <v>440</v>
       </c>
-      <c r="H221" s="4">
-        <v>1.651</v>
-      </c>
-      <c r="I221" s="4">
-        <v>1.8959999999999999</v>
+      <c r="H221" s="9">
+        <v>1651</v>
+      </c>
+      <c r="I221" s="9">
+        <v>1896</v>
       </c>
       <c r="J221" s="4">
         <v>279</v>
@@ -9749,8 +9763,8 @@
       <c r="L221" s="4">
         <v>36</v>
       </c>
-      <c r="M221" s="5">
-        <v>5.266</v>
+      <c r="M221" s="7">
+        <v>5266</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9775,11 +9789,11 @@
       <c r="G222" s="4">
         <v>620</v>
       </c>
-      <c r="H222" s="4">
-        <v>1.92</v>
-      </c>
-      <c r="I222" s="4">
-        <v>1.4430000000000001</v>
+      <c r="H222" s="9">
+        <v>1920</v>
+      </c>
+      <c r="I222" s="9">
+        <v>1443</v>
       </c>
       <c r="J222" s="4">
         <v>282</v>
@@ -9790,8 +9804,8 @@
       <c r="L222" s="4">
         <v>62</v>
       </c>
-      <c r="M222" s="5">
-        <v>5.2549999999999999</v>
+      <c r="M222" s="7">
+        <v>5255</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9814,11 +9828,11 @@
       <c r="G223" s="4">
         <v>768</v>
       </c>
-      <c r="H223" s="4">
-        <v>1.774</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1.419</v>
+      <c r="H223" s="9">
+        <v>1774</v>
+      </c>
+      <c r="I223" s="9">
+        <v>1419</v>
       </c>
       <c r="J223" s="4">
         <v>219</v>
@@ -9829,8 +9843,8 @@
       <c r="L223" s="4">
         <v>49</v>
       </c>
-      <c r="M223" s="5">
-        <v>5.4939999999999998</v>
+      <c r="M223" s="7">
+        <v>5494</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9855,11 +9869,11 @@
       <c r="G224" s="4">
         <v>626</v>
       </c>
-      <c r="H224" s="4">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="I224" s="4">
-        <v>1.181</v>
+      <c r="H224" s="9">
+        <v>1564</v>
+      </c>
+      <c r="I224" s="9">
+        <v>1181</v>
       </c>
       <c r="J224" s="4">
         <v>209</v>
@@ -9870,8 +9884,8 @@
       <c r="L224" s="4">
         <v>53</v>
       </c>
-      <c r="M224" s="5">
-        <v>4.7930000000000001</v>
+      <c r="M224" s="7">
+        <v>4793</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9894,8 +9908,8 @@
       <c r="G225" s="4">
         <v>786</v>
       </c>
-      <c r="H225" s="4">
-        <v>1.347</v>
+      <c r="H225" s="9">
+        <v>1347</v>
       </c>
       <c r="I225" s="4">
         <v>968</v>
@@ -9909,8 +9923,8 @@
       <c r="L225" s="4">
         <v>56</v>
       </c>
-      <c r="M225" s="5">
-        <v>4.8010000000000002</v>
+      <c r="M225" s="7">
+        <v>4801</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9935,8 +9949,8 @@
       <c r="G226" s="4">
         <v>704</v>
       </c>
-      <c r="H226" s="4">
-        <v>1.161</v>
+      <c r="H226" s="9">
+        <v>1161</v>
       </c>
       <c r="I226" s="4">
         <v>921</v>
@@ -9950,8 +9964,8 @@
       <c r="L226" s="4">
         <v>67</v>
       </c>
-      <c r="M226" s="5">
-        <v>4.2750000000000004</v>
+      <c r="M226" s="7">
+        <v>4275</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9965,8 +9979,8 @@
       <c r="D227" s="4">
         <v>72</v>
       </c>
-      <c r="E227" s="4">
-        <v>1.1100000000000001</v>
+      <c r="E227" s="9">
+        <v>1110</v>
       </c>
       <c r="F227" s="4">
         <v>730</v>
@@ -9974,8 +9988,8 @@
       <c r="G227" s="4">
         <v>722</v>
       </c>
-      <c r="H227" s="4">
-        <v>1.073</v>
+      <c r="H227" s="9">
+        <v>1073</v>
       </c>
       <c r="I227" s="4">
         <v>549</v>
@@ -9989,8 +10003,8 @@
       <c r="L227" s="4">
         <v>95</v>
       </c>
-      <c r="M227" s="5">
-        <v>4.4740000000000002</v>
+      <c r="M227" s="7">
+        <v>4474</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10015,8 +10029,8 @@
       <c r="G228" s="4">
         <v>756</v>
       </c>
-      <c r="H228" s="4">
-        <v>1.1930000000000001</v>
+      <c r="H228" s="9">
+        <v>1193</v>
       </c>
       <c r="I228" s="4">
         <v>724</v>
@@ -10030,8 +10044,8 @@
       <c r="L228" s="4">
         <v>127</v>
       </c>
-      <c r="M228" s="5">
-        <v>4.3739999999999997</v>
+      <c r="M228" s="7">
+        <v>4374</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10045,8 +10059,8 @@
       <c r="D229" s="4">
         <v>169</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.5760000000000001</v>
+      <c r="E229" s="9">
+        <v>1576</v>
       </c>
       <c r="F229" s="4">
         <v>618</v>
@@ -10069,8 +10083,8 @@
       <c r="L229" s="4">
         <v>99</v>
       </c>
-      <c r="M229" s="5">
-        <v>4.5309999999999997</v>
+      <c r="M229" s="7">
+        <v>4531</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10086,8 +10100,8 @@
       <c r="D230" s="4">
         <v>27</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.2669999999999999</v>
+      <c r="E230" s="9">
+        <v>1267</v>
       </c>
       <c r="F230" s="4">
         <v>443</v>
@@ -10095,8 +10109,8 @@
       <c r="G230" s="4">
         <v>565</v>
       </c>
-      <c r="H230" s="4">
-        <v>1.0429999999999999</v>
+      <c r="H230" s="9">
+        <v>1043</v>
       </c>
       <c r="I230" s="4">
         <v>654</v>
@@ -10110,8 +10124,8 @@
       <c r="L230" s="4">
         <v>143</v>
       </c>
-      <c r="M230" s="5">
-        <v>4.2320000000000002</v>
+      <c r="M230" s="7">
+        <v>4232</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10125,8 +10139,8 @@
       <c r="D231" s="4">
         <v>378</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.913</v>
+      <c r="E231" s="9">
+        <v>1913</v>
       </c>
       <c r="F231" s="4">
         <v>395</v>
@@ -10149,8 +10163,8 @@
       <c r="L231" s="4">
         <v>119</v>
       </c>
-      <c r="M231" s="5">
-        <v>4.4450000000000003</v>
+      <c r="M231" s="7">
+        <v>4445</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10166,8 +10180,8 @@
       <c r="D232" s="4">
         <v>37</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.361</v>
+      <c r="E232" s="9">
+        <v>1361</v>
       </c>
       <c r="F232" s="4">
         <v>216</v>
@@ -10190,8 +10204,8 @@
       <c r="L232" s="4">
         <v>117</v>
       </c>
-      <c r="M232" s="5">
-        <v>3.4830000000000001</v>
+      <c r="M232" s="7">
+        <v>3483</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10205,8 +10219,8 @@
       <c r="D233" s="4">
         <v>607</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.591</v>
+      <c r="E233" s="9">
+        <v>1591</v>
       </c>
       <c r="F233" s="4">
         <v>134</v>
@@ -10229,8 +10243,8 @@
       <c r="L233" s="4">
         <v>100</v>
       </c>
-      <c r="M233" s="5">
-        <v>3.7530000000000001</v>
+      <c r="M233" s="7">
+        <v>3753</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10270,8 +10284,8 @@
       <c r="L234" s="4">
         <v>70</v>
       </c>
-      <c r="M234" s="5">
-        <v>2.0939999999999999</v>
+      <c r="M234" s="7">
+        <v>2094</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10309,8 +10323,8 @@
       <c r="L235" s="4">
         <v>79</v>
       </c>
-      <c r="M235" s="5">
-        <v>2.2400000000000002</v>
+      <c r="M235" s="7">
+        <v>2240</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10326,8 +10340,8 @@
       <c r="D236" s="4">
         <v>276</v>
       </c>
-      <c r="E236" s="4">
-        <v>1.3089999999999999</v>
+      <c r="E236" s="9">
+        <v>1309</v>
       </c>
       <c r="F236" s="4">
         <v>20</v>
@@ -10350,8 +10364,8 @@
       <c r="L236" s="4">
         <v>81</v>
       </c>
-      <c r="M236" s="5">
-        <v>2.4140000000000001</v>
+      <c r="M236" s="7">
+        <v>2414</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10359,11 +10373,11 @@
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="4">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="D237" s="4">
-        <v>1.4610000000000001</v>
+      <c r="C237" s="9">
+        <v>1358</v>
+      </c>
+      <c r="D237" s="9">
+        <v>1461</v>
       </c>
       <c r="E237" s="4">
         <v>864</v>
@@ -10389,8 +10403,8 @@
       <c r="L237" s="4">
         <v>104</v>
       </c>
-      <c r="M237" s="5">
-        <v>4.0330000000000004</v>
+      <c r="M237" s="7">
+        <v>4033</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10398,38 +10412,38 @@
         <v>12</v>
       </c>
       <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.7320000000000002</v>
-      </c>
-      <c r="D238" s="5">
-        <v>3.8559999999999999</v>
-      </c>
-      <c r="E238" s="5">
-        <v>16.632999999999999</v>
-      </c>
-      <c r="F238" s="5">
-        <v>8.2219999999999995</v>
-      </c>
-      <c r="G238" s="5">
-        <v>11.936999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>31.692</v>
-      </c>
-      <c r="I238" s="5">
-        <v>26.065000000000001</v>
-      </c>
-      <c r="J238" s="5">
-        <v>2.9550000000000001</v>
+      <c r="C238" s="7">
+        <v>2732</v>
+      </c>
+      <c r="D238" s="7">
+        <v>3856</v>
+      </c>
+      <c r="E238" s="7">
+        <v>16633</v>
+      </c>
+      <c r="F238" s="7">
+        <v>8222</v>
+      </c>
+      <c r="G238" s="7">
+        <v>11937</v>
+      </c>
+      <c r="H238" s="7">
+        <v>31692</v>
+      </c>
+      <c r="I238" s="7">
+        <v>26065</v>
+      </c>
+      <c r="J238" s="7">
+        <v>2955</v>
       </c>
       <c r="K238" s="5">
         <v>766</v>
       </c>
-      <c r="L238" s="5">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="M238" s="5">
-        <v>106.55</v>
+      <c r="L238" s="7">
+        <v>1692</v>
+      </c>
+      <c r="M238" s="7">
+        <v>106550</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10508,8 +10522,8 @@
       <c r="L240" s="4">
         <v>9</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.232</v>
+      <c r="M240" s="7">
+        <v>1232</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10547,8 +10561,8 @@
       <c r="L241" s="4">
         <v>4</v>
       </c>
-      <c r="M241" s="5">
-        <v>1.2689999999999999</v>
+      <c r="M241" s="7">
+        <v>1269</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10988,8 +11002,8 @@
       <c r="L252" s="4">
         <v>9</v>
       </c>
-      <c r="M252" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M252" s="7">
+        <v>1001</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11027,8 +11041,8 @@
       <c r="L253" s="4">
         <v>12</v>
       </c>
-      <c r="M253" s="5">
-        <v>1.018</v>
+      <c r="M253" s="7">
+        <v>1018</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11068,8 +11082,8 @@
       <c r="L254" s="4">
         <v>21</v>
       </c>
-      <c r="M254" s="5">
-        <v>1.2569999999999999</v>
+      <c r="M254" s="7">
+        <v>1257</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11107,8 +11121,8 @@
       <c r="L255" s="4">
         <v>20</v>
       </c>
-      <c r="M255" s="5">
-        <v>1.2410000000000001</v>
+      <c r="M255" s="7">
+        <v>1241</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11148,8 +11162,8 @@
       <c r="L256" s="4">
         <v>21</v>
       </c>
-      <c r="M256" s="5">
-        <v>1.3879999999999999</v>
+      <c r="M256" s="7">
+        <v>1388</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11187,8 +11201,8 @@
       <c r="L257" s="4">
         <v>17</v>
       </c>
-      <c r="M257" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M257" s="7">
+        <v>1283</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11228,8 +11242,8 @@
       <c r="L258" s="4">
         <v>18</v>
       </c>
-      <c r="M258" s="5">
-        <v>1.2</v>
+      <c r="M258" s="7">
+        <v>1200</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11267,8 +11281,8 @@
       <c r="L259" s="4">
         <v>10</v>
       </c>
-      <c r="M259" s="5">
-        <v>1.2110000000000001</v>
+      <c r="M259" s="7">
+        <v>1211</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11388,8 +11402,8 @@
       <c r="L262" s="4">
         <v>14</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.137</v>
+      <c r="M262" s="7">
+        <v>1137</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11427,8 +11441,8 @@
       <c r="L263" s="4">
         <v>16</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.802</v>
+      <c r="M263" s="7">
+        <v>1802</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11436,26 +11450,26 @@
         <v>12</v>
       </c>
       <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="D264" s="5">
-        <v>1.9370000000000001</v>
-      </c>
-      <c r="E264" s="5">
-        <v>6.0650000000000004</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.905</v>
-      </c>
-      <c r="G264" s="5">
-        <v>3.3279999999999998</v>
-      </c>
-      <c r="H264" s="5">
-        <v>6.6210000000000004</v>
-      </c>
-      <c r="I264" s="5">
-        <v>3.8119999999999998</v>
+      <c r="C264" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D264" s="7">
+        <v>1937</v>
+      </c>
+      <c r="E264" s="7">
+        <v>6065</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1905</v>
+      </c>
+      <c r="G264" s="7">
+        <v>3328</v>
+      </c>
+      <c r="H264" s="7">
+        <v>6621</v>
+      </c>
+      <c r="I264" s="7">
+        <v>3812</v>
       </c>
       <c r="J264" s="5">
         <v>309</v>
@@ -11466,8 +11480,8 @@
       <c r="L264" s="5">
         <v>246</v>
       </c>
-      <c r="M264" s="5">
-        <v>25.308</v>
+      <c r="M264" s="7">
+        <v>25308</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12480,8 +12494,8 @@
       <c r="D290" s="5">
         <v>881</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.653</v>
+      <c r="E290" s="7">
+        <v>1653</v>
       </c>
       <c r="F290" s="5">
         <v>680</v>
@@ -12489,8 +12503,8 @@
       <c r="G290" s="5">
         <v>952</v>
       </c>
-      <c r="H290" s="5">
-        <v>1.2010000000000001</v>
+      <c r="H290" s="7">
+        <v>1201</v>
       </c>
       <c r="I290" s="5">
         <v>567</v>
@@ -12504,8 +12518,8 @@
       <c r="L290" s="5">
         <v>45</v>
       </c>
-      <c r="M290" s="5">
-        <v>6.3019999999999996</v>
+      <c r="M290" s="7">
+        <v>6302</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13503,8 +13517,8 @@
       <c r="L315" s="4">
         <v>23</v>
       </c>
-      <c r="M315" s="5">
-        <v>1.3640000000000001</v>
+      <c r="M315" s="7">
+        <v>1364</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13515,23 +13529,23 @@
       <c r="C316" s="5">
         <v>814</v>
       </c>
-      <c r="D316" s="5">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="E316" s="5">
-        <v>4.8970000000000002</v>
-      </c>
-      <c r="F316" s="5">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="G316" s="5">
-        <v>1.825</v>
-      </c>
-      <c r="H316" s="5">
-        <v>3.7989999999999999</v>
-      </c>
-      <c r="I316" s="5">
-        <v>2.1280000000000001</v>
+      <c r="D316" s="7">
+        <v>1322</v>
+      </c>
+      <c r="E316" s="7">
+        <v>4897</v>
+      </c>
+      <c r="F316" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G316" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H316" s="7">
+        <v>3799</v>
+      </c>
+      <c r="I316" s="7">
+        <v>2128</v>
       </c>
       <c r="J316" s="5">
         <v>138</v>
@@ -13542,8 +13556,8 @@
       <c r="L316" s="5">
         <v>336</v>
       </c>
-      <c r="M316" s="5">
-        <v>16.536999999999999</v>
+      <c r="M316" s="7">
+        <v>16537</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14556,20 +14570,20 @@
       <c r="D342" s="5">
         <v>935</v>
       </c>
-      <c r="E342" s="5">
-        <v>3.1240000000000001</v>
+      <c r="E342" s="7">
+        <v>3124</v>
       </c>
       <c r="F342" s="5">
         <v>907</v>
       </c>
-      <c r="G342" s="5">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>2.827</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.734</v>
+      <c r="G342" s="7">
+        <v>1275</v>
+      </c>
+      <c r="H342" s="7">
+        <v>2827</v>
+      </c>
+      <c r="I342" s="7">
+        <v>1734</v>
       </c>
       <c r="J342" s="5">
         <v>144</v>
@@ -14580,8 +14594,8 @@
       <c r="L342" s="5">
         <v>97</v>
       </c>
-      <c r="M342" s="5">
-        <v>11.382999999999999</v>
+      <c r="M342" s="7">
+        <v>11383</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14660,8 +14674,8 @@
       <c r="L344" s="4">
         <v>5</v>
       </c>
-      <c r="M344" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M344" s="7">
+        <v>1003</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14699,8 +14713,8 @@
       <c r="L345" s="4">
         <v>2</v>
       </c>
-      <c r="M345" s="5">
-        <v>1.022</v>
+      <c r="M345" s="7">
+        <v>1022</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -15579,8 +15593,8 @@
       <c r="L367" s="4">
         <v>10</v>
       </c>
-      <c r="M367" s="5">
-        <v>1.028</v>
+      <c r="M367" s="7">
+        <v>1028</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15591,23 +15605,23 @@
       <c r="C368" s="5">
         <v>895</v>
       </c>
-      <c r="D368" s="5">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="E368" s="5">
-        <v>4.3010000000000002</v>
-      </c>
-      <c r="F368" s="5">
-        <v>1.026</v>
-      </c>
-      <c r="G368" s="5">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="H368" s="5">
-        <v>3.8889999999999998</v>
-      </c>
-      <c r="I368" s="5">
-        <v>2.3370000000000002</v>
+      <c r="D368" s="7">
+        <v>1072</v>
+      </c>
+      <c r="E368" s="7">
+        <v>4301</v>
+      </c>
+      <c r="F368" s="7">
+        <v>1026</v>
+      </c>
+      <c r="G368" s="7">
+        <v>1626</v>
+      </c>
+      <c r="H368" s="7">
+        <v>3889</v>
+      </c>
+      <c r="I368" s="7">
+        <v>2337</v>
       </c>
       <c r="J368" s="5">
         <v>184</v>
@@ -15618,8 +15632,8 @@
       <c r="L368" s="5">
         <v>66</v>
       </c>
-      <c r="M368" s="5">
-        <v>15.436</v>
+      <c r="M368" s="7">
+        <v>15436</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15683,8 +15697,8 @@
       <c r="G370" s="4">
         <v>180</v>
       </c>
-      <c r="H370" s="4">
-        <v>1.008</v>
+      <c r="H370" s="9">
+        <v>1008</v>
       </c>
       <c r="I370" s="4">
         <v>220</v>
@@ -15698,8 +15712,8 @@
       <c r="L370" s="4">
         <v>8</v>
       </c>
-      <c r="M370" s="5">
-        <v>1.425</v>
+      <c r="M370" s="7">
+        <v>1425</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15737,8 +15751,8 @@
       <c r="L371" s="4">
         <v>5</v>
       </c>
-      <c r="M371" s="5">
-        <v>1.395</v>
+      <c r="M371" s="7">
+        <v>1395</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -16018,8 +16032,8 @@
       <c r="L378" s="4">
         <v>10</v>
       </c>
-      <c r="M378" s="5">
-        <v>1.0229999999999999</v>
+      <c r="M378" s="7">
+        <v>1023</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16057,8 +16071,8 @@
       <c r="L379" s="4">
         <v>11</v>
       </c>
-      <c r="M379" s="5">
-        <v>1.042</v>
+      <c r="M379" s="7">
+        <v>1042</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16098,8 +16112,8 @@
       <c r="L380" s="4">
         <v>15</v>
       </c>
-      <c r="M380" s="5">
-        <v>1.014</v>
+      <c r="M380" s="7">
+        <v>1014</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16178,8 +16192,8 @@
       <c r="L382" s="4">
         <v>16</v>
       </c>
-      <c r="M382" s="5">
-        <v>1.083</v>
+      <c r="M382" s="7">
+        <v>1083</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16217,8 +16231,8 @@
       <c r="L383" s="4">
         <v>13</v>
       </c>
-      <c r="M383" s="5">
-        <v>1.117</v>
+      <c r="M383" s="7">
+        <v>1117</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16258,8 +16272,8 @@
       <c r="L384" s="4">
         <v>21</v>
       </c>
-      <c r="M384" s="5">
-        <v>1.294</v>
+      <c r="M384" s="7">
+        <v>1294</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16297,8 +16311,8 @@
       <c r="L385" s="4">
         <v>19</v>
       </c>
-      <c r="M385" s="5">
-        <v>1.282</v>
+      <c r="M385" s="7">
+        <v>1282</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16338,8 +16352,8 @@
       <c r="L386" s="4">
         <v>21</v>
       </c>
-      <c r="M386" s="5">
-        <v>1.363</v>
+      <c r="M386" s="7">
+        <v>1363</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16377,8 +16391,8 @@
       <c r="L387" s="4">
         <v>19</v>
       </c>
-      <c r="M387" s="5">
-        <v>1.1970000000000001</v>
+      <c r="M387" s="7">
+        <v>1197</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16418,8 +16432,8 @@
       <c r="L388" s="4">
         <v>28</v>
       </c>
-      <c r="M388" s="5">
-        <v>1.2230000000000001</v>
+      <c r="M388" s="7">
+        <v>1223</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16457,8 +16471,8 @@
       <c r="L389" s="4">
         <v>12</v>
       </c>
-      <c r="M389" s="5">
-        <v>1.19</v>
+      <c r="M389" s="7">
+        <v>1190</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16617,8 +16631,8 @@
       <c r="L393" s="4">
         <v>19</v>
       </c>
-      <c r="M393" s="5">
-        <v>1.6140000000000001</v>
+      <c r="M393" s="7">
+        <v>1614</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16626,26 +16640,26 @@
         <v>12</v>
       </c>
       <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="D394" s="5">
-        <v>1.89</v>
-      </c>
-      <c r="E394" s="5">
-        <v>5.726</v>
-      </c>
-      <c r="F394" s="5">
-        <v>1.83</v>
-      </c>
-      <c r="G394" s="5">
-        <v>3.355</v>
-      </c>
-      <c r="H394" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="I394" s="5">
-        <v>4.5149999999999997</v>
+      <c r="C394" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D394" s="7">
+        <v>1890</v>
+      </c>
+      <c r="E394" s="7">
+        <v>5726</v>
+      </c>
+      <c r="F394" s="7">
+        <v>1830</v>
+      </c>
+      <c r="G394" s="7">
+        <v>3355</v>
+      </c>
+      <c r="H394" s="7">
+        <v>7100</v>
+      </c>
+      <c r="I394" s="7">
+        <v>4515</v>
       </c>
       <c r="J394" s="5">
         <v>392</v>
@@ -16656,8 +16670,8 @@
       <c r="L394" s="5">
         <v>297</v>
       </c>
-      <c r="M394" s="5">
-        <v>26.164999999999999</v>
+      <c r="M394" s="7">
+        <v>26165</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17667,23 +17681,23 @@
       <c r="C420" s="5">
         <v>776</v>
       </c>
-      <c r="D420" s="5">
-        <v>1.776</v>
-      </c>
-      <c r="E420" s="5">
-        <v>3.238</v>
-      </c>
-      <c r="F420" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="G420" s="5">
-        <v>1.512</v>
-      </c>
-      <c r="H420" s="5">
-        <v>2.597</v>
-      </c>
-      <c r="I420" s="5">
-        <v>1.081</v>
+      <c r="D420" s="7">
+        <v>1776</v>
+      </c>
+      <c r="E420" s="7">
+        <v>3238</v>
+      </c>
+      <c r="F420" s="7">
+        <v>1030</v>
+      </c>
+      <c r="G420" s="7">
+        <v>1512</v>
+      </c>
+      <c r="H420" s="7">
+        <v>2597</v>
+      </c>
+      <c r="I420" s="7">
+        <v>1081</v>
       </c>
       <c r="J420" s="5">
         <v>74</v>
@@ -17694,13 +17708,22 @@
       <c r="L420" s="5">
         <v>242</v>
       </c>
-      <c r="M420" s="5">
-        <v>12.331</v>
+      <c r="M420" s="7">
+        <v>12331</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A421" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A422" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A317:B317"/>
     <mergeCell ref="A343:B343"/>
     <mergeCell ref="A369:B369"/>
@@ -17717,6 +17740,7 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
